--- a/Xgboost Result.xlsx
+++ b/Xgboost Result.xlsx
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>74.24242424242425</v>
+        <v>68.93939393939394</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>76.51515151515152</v>
+        <v>73.48484848484848</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>78.78787878787878</v>
+        <v>69.6969696969697</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>68.18181818181817</v>
+        <v>74.24242424242425</v>
       </c>
     </row>
   </sheetData>
